--- a/inem_stats_files/Pernoctaciones/Pernoctaciones por tipo de alojamiento La Rioja_TC.xlsx
+++ b/inem_stats_files/Pernoctaciones/Pernoctaciones por tipo de alojamiento La Rioja_TC.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patriciagonzalez/Documents/Proyectos/Analisis Turismo Rioja/Encuesta de ocupación hotelera/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patriciagonzalez/Documents/Proyectos/Analisis Turismo Rioja/Repository/Rioja-Project/inem_stats_files/Pernoctaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027FFB85-90D4-634E-97A4-01CBAE7CFF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B3333F-1CC2-D84B-8E8D-593E473BCD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla-2941" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabla-2941'!$A$1:$P$118</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t xml:space="preserve">    2024M09</t>
   </si>
@@ -49,9 +52,6 @@
     <t xml:space="preserve">    2024M01</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    2023M12</t>
   </si>
   <si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">    2022M12</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t xml:space="preserve">    2022M11</t>
@@ -431,7 +428,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -463,6 +463,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -513,28 +520,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,121 +883,121 @@
   <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:A134"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" customWidth="1"/>
-    <col min="10" max="10" width="37.1640625" customWidth="1"/>
-    <col min="11" max="13" width="19.5" customWidth="1"/>
-    <col min="14" max="14" width="32.33203125" customWidth="1"/>
-    <col min="15" max="15" width="39.6640625" customWidth="1"/>
-    <col min="16" max="16" width="28.1640625" customWidth="1"/>
+    <col min="2" max="3" width="19.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="19.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="37.1640625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="19.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="32.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="39.6640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="28.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>105767</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>25280</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>11551</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>6722</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>7151</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>69205</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>19210</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>8648</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>5001</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>2079</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>36562</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="5">
         <v>6071</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>2903</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="5">
         <v>1721</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="5">
         <v>5072</v>
       </c>
     </row>
@@ -992,49 +1005,49 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>121383</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>99816</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>40650</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>14373</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>7822</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>100040</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>92732</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>32428</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>11630</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>4566</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>21343</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="5">
         <v>7084</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>8222</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="5">
         <v>2743</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <v>3256</v>
       </c>
     </row>
@@ -1042,49 +1055,49 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>95843</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>84906</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>23264</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>6579</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>10091</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>72164</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>79575</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>19476</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>4693</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>7092</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>23678</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>5331</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>3788</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="5">
         <v>1886</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <v>2999</v>
       </c>
     </row>
@@ -1092,49 +1105,49 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>93939</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>31692</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>12161</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>5770</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>5869</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>68505</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>24344</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>10025</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>4072</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>3049</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>25434</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="5">
         <v>7348</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>2136</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="5">
         <v>1698</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <v>2819</v>
       </c>
     </row>
@@ -1142,49 +1155,49 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>100784</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>20887</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>10000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>6840</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>9380</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>67843</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>14502</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>8226</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>4549</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>3576</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>32941</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="5">
         <v>6385</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>1774</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="5">
         <v>2290</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="5">
         <v>5804</v>
       </c>
     </row>
@@ -1192,49 +1205,49 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>88668</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>19795</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>8097</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>5368</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>3155</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>64263</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>12573</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>7091</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>4196</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>1539</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <v>24405</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="5">
         <v>7222</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>1007</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="5">
         <v>1171</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="5">
         <v>1616</v>
       </c>
     </row>
@@ -1242,49 +1255,49 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>80439</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>27722</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>11188</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>6561</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>3384</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>69201</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>24747</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>10325</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>5616</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>3162</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>11238</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="5">
         <v>2975</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>864</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="5">
         <v>945</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="5">
         <v>222</v>
       </c>
     </row>
@@ -1292,49 +1305,49 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>57160</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>4051</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>5432</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>2497</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>1663</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>50040</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>3125</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>4667</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>2038</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>1556</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
         <v>7120</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="5">
         <v>926</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>764</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="5">
         <v>459</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <v>107</v>
       </c>
     </row>
@@ -1342,5453 +1355,5298 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>43248</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="7"/>
+      <c r="D10" s="5">
         <v>4251</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>1543</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1750</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>37334</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="7"/>
+      <c r="I10" s="5">
         <v>3369</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>1475</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>1697</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <v>5914</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="7"/>
+      <c r="N10" s="5">
         <v>882</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="5">
         <v>68</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="5">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>63587</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>4105</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>15872</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>8881</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>3501</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>57571</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>4043</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>15143</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <v>8712</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <v>3008</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <v>6017</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="5">
         <v>62</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>729</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="5">
         <v>169</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="5">
         <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
         <v>69463</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>12379</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>10178</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>5347</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>2202</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>59394</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>11536</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>9265</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>5206</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>1690</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <v>10069</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="5">
         <v>843</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>913</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="5">
         <v>141</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
         <v>96586</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>20449</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>16826</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>8512</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>6201</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>74060</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>17100</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>14719</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>7891</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>3453</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <v>22526</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="5">
         <v>3349</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>2107</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="5">
         <v>621</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <v>2748</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
         <v>104263</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>31108</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>18373</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>7460</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>6075</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>69480</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>25811</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>14390</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>5983</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>3392</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
         <v>34783</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="5">
         <v>5297</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>3983</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="5">
         <v>1477</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="5">
         <v>2683</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
         <v>119694</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>102825</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>42488</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>13055</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>11798</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>96905</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>95963</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>37907</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>11791</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>8039</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <v>22790</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="5">
         <v>6862</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>4581</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="5">
         <v>1264</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="5">
         <v>3759</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
         <v>94740</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>90837</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>23716</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>8269</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>15226</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>74489</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>84992</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>19972</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>6903</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>12675</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <v>20251</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="5">
         <v>5845</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>3743</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="5">
         <v>1366</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="5">
         <v>2551</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
         <v>92307</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>32316</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>15700</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>6327</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>8687</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>68738</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>26070</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>12214</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>5209</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>5466</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <v>23569</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="5">
         <v>6246</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>3486</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="5">
         <v>1119</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="5">
         <v>3221</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
         <v>93691</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>21647</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>11366</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>6557</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>9262</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>62751</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>17068</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>9694</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>5607</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="5">
         <v>3785</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <v>30940</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="5">
         <v>4579</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>1672</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="5">
         <v>949</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="5">
         <v>5476</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
         <v>93192</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>33688</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>17280</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>9345</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>8807</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>74651</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>30149</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>16414</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>8748</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <v>5151</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <v>18541</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="5">
         <v>3539</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>866</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="5">
         <v>596</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <v>3656</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
         <v>66498</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>8876</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>9425</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>4810</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>4756</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>58312</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>7774</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>8569</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>4614</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <v>3434</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
         <v>8185</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="5">
         <v>1102</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>856</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="5">
         <v>195</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="5">
         <v>1322</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
         <v>54834</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>5086</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>9008</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>3922</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>3452</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>49489</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>4358</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>8559</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>3829</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <v>2505</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
         <v>5345</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="5">
         <v>728</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>449</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="5">
         <v>93</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <v>947</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
         <v>39939</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>1402</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>5751</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>2650</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>1561</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>35718</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>1318</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <v>5256</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <v>2385</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <v>1055</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
         <v>4221</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="5">
         <v>84</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>495</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="5">
         <v>266</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="5">
         <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
         <v>57510</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>4815</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>10759</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>7200</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>4046</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>51555</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>4815</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <v>9683</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>7045</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <v>3581</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <v>5955</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="M23" s="7"/>
+      <c r="N23" s="5">
         <v>1076</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="5">
         <v>155</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="5">
         <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
         <v>66315</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>7151</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>6653</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>4655</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>3627</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>57403</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>6420</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="5">
         <v>5633</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <v>4227</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="5">
         <v>2734</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="5">
         <v>8912</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="5">
         <v>731</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>1020</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="5">
         <v>428</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
         <v>95703</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>16831</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>13155</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>7129</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>6008</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>76552</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>12401</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <v>11383</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <v>6230</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="5">
         <v>3998</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="5">
         <v>19151</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="5">
         <v>4430</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>1772</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="5">
         <v>900</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <v>2009</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
         <v>99356</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>31174</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>12574</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>6963</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>7699</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>71319</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>27282</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <v>10166</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="5">
         <v>5467</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <v>3625</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
         <v>28037</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="5">
         <v>3892</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>2408</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="5">
         <v>1495</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="5">
         <v>4074</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
         <v>122344</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>114221</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>27568</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>10869</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>11570</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>101516</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>108053</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="5">
         <v>22449</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="5">
         <v>9142</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="5">
         <v>7184</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="5">
         <v>20828</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="5">
         <v>6168</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>5119</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="5">
         <v>1727</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="5">
         <v>4386</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
         <v>89568</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>98783</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>20285</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>7434</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>12970</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>71304</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>94939</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="5">
         <v>17696</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="5">
         <v>5749</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="5">
         <v>10796</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="5">
         <v>18264</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="5">
         <v>3844</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>2589</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="5">
         <v>1686</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <v>2173</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
         <v>82621</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>40648</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>11854</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>6138</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>6448</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>60503</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>32915</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="5">
         <v>9289</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="5">
         <v>4959</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="5">
         <v>3917</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="5">
         <v>22118</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="5">
         <v>7733</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>2565</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="5">
         <v>1178</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="5">
         <v>2531</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
         <v>84515</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>20577</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>8920</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>5702</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>7163</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>60330</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>15858</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <v>7667</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <v>4686</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="5">
         <v>4011</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="5">
         <v>24184</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="5">
         <v>4719</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>1253</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="5">
         <v>1016</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="5">
         <v>3152</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
         <v>86260</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>29924</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>13110</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>7180</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>5859</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>70378</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>22111</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <v>11589</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="5">
         <v>6626</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="5">
         <v>3540</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="5">
         <v>15882</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="5">
         <v>7813</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>1521</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="5">
         <v>553</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <v>2319</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
         <v>55307</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>7822</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>6318</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>3477</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>2724</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>45779</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>6264</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <v>5951</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="5">
         <v>3138</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="5">
         <v>2179</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="5">
         <v>9528</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="5">
         <v>1558</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>367</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="5">
         <v>338</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="5">
         <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
         <v>46288</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>4282</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <v>6745</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>2705</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>2026</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>40389</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="5">
         <v>3790</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="5">
         <v>6119</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="5">
         <v>2554</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="5">
         <v>1734</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="5">
         <v>5899</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="5">
         <v>492</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="5">
         <v>625</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="5">
         <v>151</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
         <v>31065</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>1981</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>4391</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>2133</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>1030</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>26860</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="5">
         <v>1818</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <v>4045</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="5">
         <v>2079</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="5">
         <v>923</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="5">
         <v>4205</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="5">
         <v>163</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="5">
         <v>346</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="5">
         <v>54</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="5">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
         <v>50980</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>3734</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="7"/>
+      <c r="E35" s="5">
         <v>7322</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="7"/>
+      <c r="G35" s="5">
         <v>45449</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="5">
         <v>3674</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" s="7"/>
+      <c r="J35" s="5">
         <v>5956</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="K35" s="7"/>
+      <c r="L35" s="5">
         <v>5531</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="5">
         <v>60</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" s="4">
+      <c r="N35" s="7"/>
+      <c r="O35" s="5">
         <v>1366</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
         <v>63773</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>6919</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>8142</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>6430</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>2227</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>56667</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="5">
         <v>6546</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="5">
         <v>7633</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="5">
         <v>4756</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="5">
         <v>1806</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="5">
         <v>7106</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="5">
         <v>373</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="5">
         <v>508</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="5">
         <v>1674</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5">
         <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
         <v>93656</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>19969</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>14734</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>9594</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>5640</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>78242</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="5">
         <v>17599</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="5">
         <v>13194</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="5">
         <v>7712</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="5">
         <v>4558</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="5">
         <v>15414</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="5">
         <v>2370</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="5">
         <v>1540</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="5">
         <v>1883</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="5">
         <v>1082</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5">
         <v>85262</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>33302</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>13328</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>7038</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>4549</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>65909</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="5">
         <v>30768</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="5">
         <v>9976</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="5">
         <v>5004</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="5">
         <v>2741</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="5">
         <v>19353</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="5">
         <v>2534</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="5">
         <v>3352</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="5">
         <v>2035</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="5">
         <v>1808</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
         <v>122226</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>133182</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>27226</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>13826</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>10347</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>106991</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="5">
         <v>129250</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="5">
         <v>25888</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="5">
         <v>11292</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="5">
         <v>8741</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="5">
         <v>15235</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="5">
         <v>3932</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="5">
         <v>1339</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="5">
         <v>2534</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5">
         <v>1606</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5">
         <v>74049</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="5">
         <v>93698</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>19644</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>10186</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>11341</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <v>64460</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="5">
         <v>91501</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="5">
         <v>17803</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="5">
         <v>7952</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="5">
         <v>10430</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="5">
         <v>9589</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="5">
         <v>2197</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="5">
         <v>1841</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="5">
         <v>2234</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5">
         <v>911</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5">
         <v>46973</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>27418</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>7716</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>5177</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>2558</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>40409</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="5">
         <v>26455</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="5">
         <v>6816</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="5">
         <v>3573</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="5">
         <v>2207</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="5">
         <v>6564</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="5">
         <v>963</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="5">
         <v>900</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="5">
         <v>1604</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="5">
         <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5">
         <v>32080</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>12274</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>4097</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>2437</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>1164</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>28727</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="5">
         <v>11771</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="5">
         <v>3878</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="5">
         <v>2377</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="5">
         <v>1000</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="5">
         <v>3353</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="5">
         <v>503</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="5">
         <v>218</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="5">
         <v>60</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="5">
         <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5">
         <v>16797</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="C43" s="7"/>
+      <c r="D43" s="5">
         <v>2293</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>2031</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>281</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>14821</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="4">
+      <c r="H43" s="7"/>
+      <c r="I43" s="5">
         <v>2278</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="5">
         <v>2027</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="5">
         <v>259</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="5">
         <v>1976</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N43" s="4">
+      <c r="M43" s="7"/>
+      <c r="N43" s="5">
         <v>15</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="5">
         <v>5</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5">
         <v>17404</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="5">
         <v>390</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>1649</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>888</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>212</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <v>15229</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="5">
         <v>371</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="5">
         <v>1501</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="5">
         <v>786</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="5">
         <v>201</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="5">
         <v>2175</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="5">
         <v>19</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="5">
         <v>149</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="5">
         <v>103</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5">
         <v>9236</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="5">
         <v>603</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="F45" s="7"/>
+      <c r="G45" s="5">
         <v>8126</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="4">
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="5">
         <v>598</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="K45" s="7"/>
+      <c r="L45" s="5">
         <v>1110</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O45" s="4">
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="5">
         <v>5</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="P45" s="7"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5">
         <v>8420</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="C46" s="7"/>
+      <c r="D46" s="5">
         <v>1271</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>438</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>35</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <v>7602</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="4">
+      <c r="H46" s="7"/>
+      <c r="I46" s="5">
         <v>1271</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="5">
         <v>433</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="5">
         <v>10</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="5">
         <v>817</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="M46" s="7"/>
+      <c r="N46" s="5">
         <v>0</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="5">
         <v>5</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5">
         <v>11377</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="5">
         <v>695</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>1173</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>1440</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="F47" s="7"/>
+      <c r="G47" s="5">
         <v>9978</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="5">
         <v>655</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="5">
         <v>1139</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="5">
         <v>1440</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="4">
+      <c r="K47" s="7"/>
+      <c r="L47" s="5">
         <v>1399</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="5">
         <v>40</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="5">
         <v>34</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="5">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="P47" s="7"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5">
         <v>10929</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48" s="7"/>
+      <c r="D48" s="5">
         <v>888</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>1065</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="F48" s="7"/>
+      <c r="G48" s="5">
         <v>9303</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="4">
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="5">
         <v>1626</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5">
         <v>29564</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="5">
         <v>6988</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="5">
         <v>3633</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <v>2451</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <v>794</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>26059</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="5">
         <v>6597</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="5">
         <v>3534</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="5">
         <v>2429</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="5">
         <v>786</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="5">
         <v>3505</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="5">
         <v>391</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="5">
         <v>98</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="5">
         <v>22</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5">
         <v>39126</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="5">
         <v>17752</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="5">
         <v>4639</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <v>3180</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="F50" s="7"/>
+      <c r="G50" s="5">
         <v>34741</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="5">
         <v>17528</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="5">
         <v>4439</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="5">
         <v>3022</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="4">
+      <c r="K50" s="7"/>
+      <c r="L50" s="5">
         <v>4385</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="5">
         <v>224</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="5">
         <v>200</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="5">
         <v>158</v>
       </c>
-      <c r="P50" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="P50" s="7"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5">
         <v>65449</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="5">
         <v>81899</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="5">
         <v>16029</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <v>13759</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <v>419</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="5">
         <v>59820</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="5">
         <v>80828</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="5">
         <v>15448</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="5">
         <v>13556</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="5">
         <v>415</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="5">
         <v>5630</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="5">
         <v>1071</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="5">
         <v>581</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="5">
         <v>202</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5">
         <v>49321</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="5">
         <v>55209</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="5">
         <v>7494</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
         <v>7280</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <v>841</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <v>43525</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="5">
         <v>54627</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="5">
         <v>7038</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="5">
         <v>7030</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="5">
         <v>832</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="5">
         <v>5796</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="5">
         <v>582</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="5">
         <v>456</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="5">
         <v>250</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5">
         <v>10168</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="5">
         <v>10020</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <v>1942</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
         <v>2233</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="F53" s="7"/>
+      <c r="G53" s="5">
         <v>9161</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="5">
         <v>9998</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="5">
         <v>1942</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="5">
         <v>2209</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L53" s="4">
+      <c r="K53" s="7"/>
+      <c r="L53" s="5">
         <v>1007</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="5">
         <v>22</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="5">
         <v>0</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="5">
         <v>24</v>
       </c>
-      <c r="P53" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="P53" s="7"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5">
         <v>1596</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="C54" s="7"/>
+      <c r="D54" s="5">
         <v>507</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="5">
         <v>519</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="F54" s="7"/>
+      <c r="G54" s="5">
         <v>1537</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="4">
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="5">
         <v>58</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5">
         <v>0</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="5">
         <v>0</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="5">
         <v>0</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="5">
         <v>0</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="5">
         <v>0</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="5">
         <v>0</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="4">
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="5">
         <v>0</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="5">
         <v>0</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="5">
         <v>0</v>
       </c>
-      <c r="O55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5">
         <v>20360</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="5">
         <v>3144</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="5">
         <v>1990</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <v>1233</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <v>449</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <v>17715</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="5">
         <v>3144</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="5">
         <v>1238</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="5">
         <v>1228</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="5">
         <v>324</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="5">
         <v>2645</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="5">
         <v>0</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="5">
         <v>752</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="5">
         <v>5</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="5">
         <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5">
         <v>65221</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="5">
         <v>7730</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="5">
         <v>6026</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="5">
         <v>3744</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="5">
         <v>974</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <v>57266</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="5">
         <v>6850</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="5">
         <v>5834</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="5">
         <v>3685</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="5">
         <v>974</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="5">
         <v>7955</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="5">
         <v>880</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="5">
         <v>192</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="5">
         <v>58</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5">
         <v>46282</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="5">
         <v>3683</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <v>4557</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
         <v>2901</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="5">
         <v>318</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="5">
         <v>40155</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="5">
         <v>3439</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="5">
         <v>4376</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="5">
         <v>2866</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="5">
         <v>315</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="5">
         <v>6127</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="5">
         <v>244</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="5">
         <v>181</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="5">
         <v>35</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5">
         <v>59898</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="5">
         <v>9501</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="5">
         <v>8727</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="5">
         <v>10075</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="5">
         <v>981</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="5">
         <v>54041</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="4">
+      <c r="H59" s="7"/>
+      <c r="I59" s="5">
         <v>8456</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="5">
         <v>9986</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="5">
         <v>981</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="5">
         <v>5857</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N59" s="4">
+      <c r="M59" s="7"/>
+      <c r="N59" s="5">
         <v>271</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="5">
         <v>89</v>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5">
         <v>76790</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="5">
         <v>10308</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="5">
         <v>7034</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="5">
         <v>7866</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="5">
         <v>1083</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="5">
         <v>66530</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="5">
         <v>9744</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="5">
         <v>6868</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="5">
         <v>7661</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="5">
         <v>1083</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="5">
         <v>10260</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="5">
         <v>564</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="5">
         <v>166</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="5">
         <v>205</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5">
         <v>99566</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="5">
         <v>15627</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="5">
         <v>10437</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="5">
         <v>8442</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="5">
         <v>1272</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="5">
         <v>77035</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="5">
         <v>12336</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="5">
         <v>9165</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="5">
         <v>7233</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="5">
         <v>956</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="5">
         <v>22531</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="5">
         <v>3291</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="5">
         <v>1273</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="5">
         <v>1208</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="5">
         <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5">
         <v>107114</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="5">
         <v>32879</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="5">
         <v>8676</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="5">
         <v>7825</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="5">
         <v>1999</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="5">
         <v>74057</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="5">
         <v>29581</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="5">
         <v>7127</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="5">
         <v>6398</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="5">
         <v>1230</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="5">
         <v>33057</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="5">
         <v>3298</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N62" s="5">
         <v>1548</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O62" s="5">
         <v>1427</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="5">
         <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5">
         <v>124132</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="5">
         <v>148142</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="5">
         <v>22660</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="5">
         <v>13831</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="5">
         <v>2289</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="5">
         <v>105051</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="5">
         <v>140287</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="5">
         <v>20908</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="5">
         <v>12473</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="5">
         <v>1918</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="5">
         <v>19081</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="5">
         <v>7855</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="5">
         <v>1751</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="5">
         <v>1358</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="5">
         <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5">
         <v>90142</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="5">
         <v>105321</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="5">
         <v>10905</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="5">
         <v>8494</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="5">
         <v>3228</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="5">
         <v>71776</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="5">
         <v>100648</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="5">
         <v>8676</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="5">
         <v>7461</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="5">
         <v>2908</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="5">
         <v>18366</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="5">
         <v>4673</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="5">
         <v>2229</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="5">
         <v>1034</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="5">
         <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5">
         <v>89630</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="5">
         <v>29666</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="5">
         <v>8077</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="5">
         <v>6580</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="5">
         <v>3491</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="5">
         <v>66416</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="5">
         <v>23494</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="5">
         <v>7025</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="5">
         <v>6077</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="5">
         <v>3048</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="5">
         <v>23213</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="5">
         <v>6172</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="5">
         <v>1052</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="5">
         <v>503</v>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="5">
         <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5">
         <v>96017</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="5">
         <v>17529</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="5">
         <v>6411</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="5">
         <v>6268</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="5">
         <v>2014</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="5">
         <v>67275</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="5">
         <v>13047</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="5">
         <v>4801</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="5">
         <v>5653</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="5">
         <v>1345</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="5">
         <v>28741</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M66" s="5">
         <v>4482</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="5">
         <v>1610</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O66" s="5">
         <v>615</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="5">
         <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5">
         <v>88820</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="5">
         <v>30945</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="5">
         <v>9468</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="5">
         <v>7553</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="5">
         <v>2371</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <v>70807</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="5">
         <v>27550</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="5">
         <v>8831</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="5">
         <v>7355</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="5">
         <v>1958</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="5">
         <v>18012</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="5">
         <v>3395</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="5">
         <v>637</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O67" s="5">
         <v>198</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="5">
         <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5">
         <v>71588</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="5">
         <v>11527</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="5">
         <v>6363</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="5">
         <v>6322</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="5">
         <v>1313</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="5">
         <v>63186</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="5">
         <v>10066</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="5">
         <v>5989</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="5">
         <v>6172</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="5">
         <v>1248</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="5">
         <v>8402</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M68" s="5">
         <v>1461</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N68" s="5">
         <v>374</v>
       </c>
-      <c r="O68" s="4">
+      <c r="O68" s="5">
         <v>151</v>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="5">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5">
         <v>51447</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="5">
         <v>6131</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="5">
         <v>5505</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="5">
         <v>3538</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="5">
         <v>1123</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <v>45247</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="5">
         <v>5513</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="5">
         <v>5064</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="5">
         <v>3456</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="5">
         <v>984</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="5">
         <v>6200</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69" s="5">
         <v>618</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N69" s="5">
         <v>441</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O69" s="5">
         <v>82</v>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="5">
         <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5">
         <v>44609</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="5">
         <v>3497</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="5">
         <v>4053</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
         <v>1626</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="5">
         <v>477</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="5">
         <v>38905</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="5">
         <v>3254</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="5">
         <v>3901</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="5">
         <v>1611</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="5">
         <v>477</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="5">
         <v>5704</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="5">
         <v>243</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="5">
         <v>152</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="5">
         <v>14</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5">
         <v>62854</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="5">
         <v>9898</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="5">
         <v>9793</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="5">
         <v>9204</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="5">
         <v>1268</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <v>57422</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="4">
+      <c r="H71" s="7"/>
+      <c r="I71" s="5">
         <v>9360</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="5">
         <v>9121</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="5">
         <v>1265</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="5">
         <v>5433</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N71" s="4">
+      <c r="M71" s="7"/>
+      <c r="N71" s="5">
         <v>433</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O71" s="5">
         <v>82</v>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5">
         <v>81388</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="5">
         <v>11776</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="5">
         <v>6448</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="5">
         <v>7795</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="5">
         <v>847</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="5">
         <v>72669</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="4">
+      <c r="H72" s="7"/>
+      <c r="I72" s="5">
         <v>6244</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="5">
         <v>7702</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="5">
         <v>840</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="5">
         <v>8720</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N72" s="4">
+      <c r="M72" s="7"/>
+      <c r="N72" s="5">
         <v>204</v>
       </c>
-      <c r="O72" s="4">
+      <c r="O72" s="5">
         <v>93</v>
       </c>
-      <c r="P72" s="4">
+      <c r="P72" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5">
         <v>98996</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="5">
         <v>14707</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="5">
         <v>8846</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="5">
         <v>8385</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="5">
         <v>1557</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="5">
         <v>80207</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="5">
         <v>12098</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="5">
         <v>8072</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="5">
         <v>8127</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="5">
         <v>1158</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="5">
         <v>18790</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M73" s="5">
         <v>2609</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N73" s="5">
         <v>774</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O73" s="5">
         <v>258</v>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="5">
         <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5">
         <v>109232</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="5">
         <v>28096</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="5">
         <v>8579</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="5">
         <v>7408</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="5">
         <v>1634</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="5">
         <v>76159</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="5">
         <v>25732</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="5">
         <v>7511</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="5">
         <v>6627</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="5">
         <v>1002</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="5">
         <v>33073</v>
       </c>
-      <c r="M74" s="4">
+      <c r="M74" s="5">
         <v>2364</v>
       </c>
-      <c r="N74" s="4">
+      <c r="N74" s="5">
         <v>1068</v>
       </c>
-      <c r="O74" s="4">
+      <c r="O74" s="5">
         <v>781</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="5">
         <v>632</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5">
         <v>123168</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="5">
         <v>142395</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="5">
         <v>15183</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="5">
         <v>15171</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="5">
         <v>2230</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="5">
         <v>103233</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="5">
         <v>135543</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="5">
         <v>13687</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="5">
         <v>14260</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="5">
         <v>1856</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="5">
         <v>19935</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M75" s="5">
         <v>6852</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="5">
         <v>1495</v>
       </c>
-      <c r="O75" s="4">
+      <c r="O75" s="5">
         <v>911</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="5">
         <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5">
         <v>93773</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="5">
         <v>89444</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="5">
         <v>11244</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="5">
         <v>9721</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="5">
         <v>2958</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="5">
         <v>75470</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="5">
         <v>85347</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="5">
         <v>10283</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="5">
         <v>9121</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="5">
         <v>2648</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="5">
         <v>18302</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76" s="5">
         <v>4097</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N76" s="5">
         <v>960</v>
       </c>
-      <c r="O76" s="4">
+      <c r="O76" s="5">
         <v>600</v>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="5">
         <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5">
         <v>90132</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="5">
         <v>26239</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="5">
         <v>8404</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="5">
         <v>7004</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="5">
         <v>2318</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="5">
         <v>67381</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="5">
         <v>19418</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="5">
         <v>7723</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="5">
         <v>6438</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="5">
         <v>2021</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="5">
         <v>22752</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77" s="5">
         <v>6821</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N77" s="5">
         <v>681</v>
       </c>
-      <c r="O77" s="4">
+      <c r="O77" s="5">
         <v>566</v>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="5">
         <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5">
         <v>90965</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="5">
         <v>14174</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="5">
         <v>6795</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="5">
         <v>6116</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="5">
         <v>1409</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="5">
         <v>63501</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="5">
         <v>10680</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="5">
         <v>5908</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="5">
         <v>5622</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="5">
         <v>920</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="5">
         <v>27464</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M78" s="5">
         <v>3494</v>
       </c>
-      <c r="N78" s="4">
+      <c r="N78" s="5">
         <v>886</v>
       </c>
-      <c r="O78" s="4">
+      <c r="O78" s="5">
         <v>494</v>
       </c>
-      <c r="P78" s="4">
+      <c r="P78" s="5">
         <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5">
         <v>84448</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="5">
         <v>17154</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="5">
         <v>7982</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="5">
         <v>8059</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="5">
         <v>2023</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="5">
         <v>66517</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="5">
         <v>14361</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="5">
         <v>7493</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="5">
         <v>7660</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="5">
         <v>1517</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="5">
         <v>17931</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M79" s="5">
         <v>2793</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N79" s="5">
         <v>488</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O79" s="5">
         <v>399</v>
       </c>
-      <c r="P79" s="4">
+      <c r="P79" s="5">
         <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5">
         <v>76384</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="5">
         <v>22264</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="5">
         <v>9080</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="5">
         <v>8036</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="5">
         <v>2267</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="5">
         <v>65636</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="5">
         <v>19601</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="5">
         <v>8868</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="5">
         <v>7852</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="5">
         <v>1943</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="5">
         <v>10748</v>
       </c>
-      <c r="M80" s="4">
+      <c r="M80" s="5">
         <v>2663</v>
       </c>
-      <c r="N80" s="4">
+      <c r="N80" s="5">
         <v>213</v>
       </c>
-      <c r="O80" s="4">
+      <c r="O80" s="5">
         <v>184</v>
       </c>
-      <c r="P80" s="4">
+      <c r="P80" s="5">
         <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5">
         <v>52887</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="5">
         <v>4403</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="5">
         <v>7460</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="5">
         <v>3418</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="5">
         <v>1253</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="5">
         <v>46925</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="5">
         <v>3447</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="5">
         <v>7048</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="5">
         <v>3288</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="5">
         <v>1175</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81" s="5">
         <v>5962</v>
       </c>
-      <c r="M81" s="4">
+      <c r="M81" s="5">
         <v>956</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N81" s="5">
         <v>412</v>
       </c>
-      <c r="O81" s="4">
+      <c r="O81" s="5">
         <v>130</v>
       </c>
-      <c r="P81" s="4">
+      <c r="P81" s="5">
         <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5">
         <v>43577</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="5">
         <v>3518</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="5">
         <v>5163</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="5">
         <v>2258</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="5">
         <v>460</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="5">
         <v>37091</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="5">
         <v>3240</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="5">
         <v>5131</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="5">
         <v>2223</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="5">
         <v>450</v>
       </c>
-      <c r="L82" s="4">
+      <c r="L82" s="5">
         <v>6486</v>
       </c>
-      <c r="M82" s="4">
+      <c r="M82" s="5">
         <v>278</v>
       </c>
-      <c r="N82" s="4">
+      <c r="N82" s="5">
         <v>31</v>
       </c>
-      <c r="O82" s="4">
+      <c r="O82" s="5">
         <v>35</v>
       </c>
-      <c r="P82" s="4">
+      <c r="P82" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5">
         <v>66129</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="5">
         <v>8628</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="5">
         <v>11791</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="5">
         <v>8044</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="5">
         <v>1503</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <v>60897</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="4">
+      <c r="H83" s="7"/>
+      <c r="I83" s="5">
         <v>11431</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="5">
         <v>7971</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="5">
         <v>1496</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L83" s="5">
         <v>5232</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N83" s="4">
+      <c r="M83" s="7"/>
+      <c r="N83" s="5">
         <v>359</v>
       </c>
-      <c r="O83" s="4">
+      <c r="O83" s="5">
         <v>73</v>
       </c>
-      <c r="P83" s="4">
+      <c r="P83" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5">
         <v>75128</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="5">
         <v>10756</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="5">
         <v>7276</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="5">
         <v>5354</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="5">
         <v>544</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="5">
         <v>66421</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="4">
+      <c r="H84" s="7"/>
+      <c r="I84" s="5">
         <v>6782</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84" s="5">
         <v>5314</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K84" s="5">
         <v>543</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L84" s="5">
         <v>8707</v>
       </c>
-      <c r="M84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N84" s="4">
+      <c r="M84" s="7"/>
+      <c r="N84" s="5">
         <v>494</v>
       </c>
-      <c r="O84" s="4">
+      <c r="O84" s="5">
         <v>40</v>
       </c>
-      <c r="P84" s="4">
+      <c r="P84" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5">
         <v>97292</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="5">
         <v>17000</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="5">
         <v>12233</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="5">
         <v>8858</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="5">
         <v>1026</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <v>79695</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="5">
         <v>15317</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85" s="5">
         <v>10593</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="5">
         <v>8614</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K85" s="5">
         <v>1003</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L85" s="5">
         <v>17597</v>
       </c>
-      <c r="M85" s="4">
+      <c r="M85" s="5">
         <v>1683</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N85" s="5">
         <v>1640</v>
       </c>
-      <c r="O85" s="4">
+      <c r="O85" s="5">
         <v>244</v>
       </c>
-      <c r="P85" s="4">
+      <c r="P85" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5">
         <v>114190</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="5">
         <v>26985</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="5">
         <v>11096</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="5">
         <v>8021</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="5">
         <v>810</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="5">
         <v>83380</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="5">
         <v>23956</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="5">
         <v>9857</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="5">
         <v>7376</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="5">
         <v>700</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="5">
         <v>30810</v>
       </c>
-      <c r="M86" s="4">
+      <c r="M86" s="5">
         <v>3029</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N86" s="5">
         <v>1239</v>
       </c>
-      <c r="O86" s="4">
+      <c r="O86" s="5">
         <v>644</v>
       </c>
-      <c r="P86" s="4">
+      <c r="P86" s="5">
         <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5">
         <v>131789</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="5">
         <v>143181</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="5">
         <v>21164</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="5">
         <v>14797</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="5">
         <v>1708</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <v>113515</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="5">
         <v>136238</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="5">
         <v>19025</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87" s="5">
         <v>13923</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="5">
         <v>1363</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="5">
         <v>18274</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M87" s="5">
         <v>6943</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N87" s="5">
         <v>2139</v>
       </c>
-      <c r="O87" s="4">
+      <c r="O87" s="5">
         <v>873</v>
       </c>
-      <c r="P87" s="4">
+      <c r="P87" s="5">
         <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5">
         <v>99294</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="5">
         <v>92111</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="5">
         <v>15581</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="5">
         <v>8413</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="5">
         <v>2222</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="5">
         <v>80386</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="5">
         <v>87593</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="5">
         <v>14082</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="5">
         <v>7738</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="5">
         <v>2049</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L88" s="5">
         <v>18908</v>
       </c>
-      <c r="M88" s="4">
+      <c r="M88" s="5">
         <v>4518</v>
       </c>
-      <c r="N88" s="4">
+      <c r="N88" s="5">
         <v>1499</v>
       </c>
-      <c r="O88" s="4">
+      <c r="O88" s="5">
         <v>674</v>
       </c>
-      <c r="P88" s="4">
+      <c r="P88" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5">
         <v>94310</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="5">
         <v>26379</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="5">
         <v>9592</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="5">
         <v>6460</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="5">
         <v>1310</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="5">
         <v>70944</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="5">
         <v>20783</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="5">
         <v>8429</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="5">
         <v>5858</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="5">
         <v>1261</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L89" s="5">
         <v>23367</v>
       </c>
-      <c r="M89" s="4">
+      <c r="M89" s="5">
         <v>5596</v>
       </c>
-      <c r="N89" s="4">
+      <c r="N89" s="5">
         <v>1162</v>
       </c>
-      <c r="O89" s="4">
+      <c r="O89" s="5">
         <v>603</v>
       </c>
-      <c r="P89" s="4">
+      <c r="P89" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5">
         <v>91586</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="5">
         <v>15744</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="5">
         <v>8841</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="5">
         <v>6262</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="5">
         <v>473</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="5">
         <v>63699</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="5">
         <v>12880</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="5">
         <v>7569</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="5">
         <v>5567</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="5">
         <v>374</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L90" s="5">
         <v>27887</v>
       </c>
-      <c r="M90" s="4">
+      <c r="M90" s="5">
         <v>2864</v>
       </c>
-      <c r="N90" s="4">
+      <c r="N90" s="5">
         <v>1272</v>
       </c>
-      <c r="O90" s="4">
+      <c r="O90" s="5">
         <v>696</v>
       </c>
-      <c r="P90" s="4">
+      <c r="P90" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5">
         <v>98061</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="5">
         <v>31963</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="5">
         <v>13748</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="5">
         <v>11433</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="5">
         <v>1384</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="5">
         <v>81589</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="5">
         <v>27743</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="5">
         <v>12342</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="5">
         <v>10840</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="5">
         <v>1243</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="5">
         <v>16471</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="5">
         <v>4220</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="5">
         <v>1406</v>
       </c>
-      <c r="O91" s="4">
+      <c r="O91" s="5">
         <v>593</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="5">
         <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5">
         <v>71512</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="5">
         <v>9285</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="5">
         <v>8419</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="5">
         <v>5503</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="5">
         <v>649</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="5">
         <v>63254</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="5">
         <v>8656</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I92" s="5">
         <v>7661</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="5">
         <v>5390</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="5">
         <v>634</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="5">
         <v>8257</v>
       </c>
-      <c r="M92" s="4">
+      <c r="M92" s="5">
         <v>629</v>
       </c>
-      <c r="N92" s="4">
+      <c r="N92" s="5">
         <v>758</v>
       </c>
-      <c r="O92" s="4">
+      <c r="O92" s="5">
         <v>112</v>
       </c>
-      <c r="P92" s="4">
+      <c r="P92" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5">
         <v>55405</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="5">
         <v>3730</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="5">
         <v>7408</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="5">
         <v>4057</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="5">
         <v>1016</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="5">
         <v>49768</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="5">
         <v>3215</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I93" s="5">
         <v>6636</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="5">
         <v>3992</v>
       </c>
-      <c r="K93" s="4">
+      <c r="K93" s="5">
         <v>692</v>
       </c>
-      <c r="L93" s="4">
+      <c r="L93" s="5">
         <v>5637</v>
       </c>
-      <c r="M93" s="4">
+      <c r="M93" s="5">
         <v>515</v>
       </c>
-      <c r="N93" s="4">
+      <c r="N93" s="5">
         <v>771</v>
       </c>
-      <c r="O93" s="4">
+      <c r="O93" s="5">
         <v>65</v>
       </c>
-      <c r="P93" s="4">
+      <c r="P93" s="5">
         <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5">
         <v>47018</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="5">
         <v>2774</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="5">
         <v>4716</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="5">
         <v>1956</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="4">
+      <c r="F94" s="7"/>
+      <c r="G94" s="5">
         <v>41016</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="5">
         <v>2531</v>
       </c>
-      <c r="I94" s="4">
+      <c r="I94" s="5">
         <v>4329</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="5">
         <v>1896</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L94" s="4">
+      <c r="K94" s="7"/>
+      <c r="L94" s="5">
         <v>6001</v>
       </c>
-      <c r="M94" s="4">
+      <c r="M94" s="5">
         <v>243</v>
       </c>
-      <c r="N94" s="4">
+      <c r="N94" s="5">
         <v>387</v>
       </c>
-      <c r="O94" s="4">
+      <c r="O94" s="5">
         <v>59</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="P94" s="7"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5">
         <v>68996</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="5">
         <v>8119</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="5">
         <v>10528</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="5">
         <v>7699</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="5">
         <v>359</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="5">
         <v>63034</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="4">
+      <c r="H95" s="7"/>
+      <c r="I95" s="5">
         <v>10402</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95" s="5">
         <v>7641</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K95" s="5">
         <v>359</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="5">
         <v>5962</v>
       </c>
-      <c r="M95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N95" s="4">
+      <c r="M95" s="7"/>
+      <c r="N95" s="5">
         <v>126</v>
       </c>
-      <c r="O95" s="4">
+      <c r="O95" s="5">
         <v>59</v>
       </c>
-      <c r="P95" s="4">
+      <c r="P95" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="4">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5">
         <v>69735</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="5">
         <v>10685</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="5">
         <v>6794</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="5">
         <v>5234</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="5">
         <v>604</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="5">
         <v>61233</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="5">
         <v>9416</v>
       </c>
-      <c r="I96" s="4">
+      <c r="I96" s="5">
         <v>6288</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="5">
         <v>5152</v>
       </c>
-      <c r="K96" s="4">
+      <c r="K96" s="5">
         <v>587</v>
       </c>
-      <c r="L96" s="4">
+      <c r="L96" s="5">
         <v>8502</v>
       </c>
-      <c r="M96" s="4">
+      <c r="M96" s="5">
         <v>1269</v>
       </c>
-      <c r="N96" s="4">
+      <c r="N96" s="5">
         <v>506</v>
       </c>
-      <c r="O96" s="4">
+      <c r="O96" s="5">
         <v>83</v>
       </c>
-      <c r="P96" s="4">
+      <c r="P96" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5">
         <v>107336</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="5">
         <v>15371</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="5">
         <v>12820</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="5">
         <v>8996</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="5">
         <v>1042</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="5">
         <v>82777</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="5">
         <v>12434</v>
       </c>
-      <c r="I97" s="4">
+      <c r="I97" s="5">
         <v>12317</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="5">
         <v>8352</v>
       </c>
-      <c r="K97" s="4">
+      <c r="K97" s="5">
         <v>978</v>
       </c>
-      <c r="L97" s="4">
+      <c r="L97" s="5">
         <v>24559</v>
       </c>
-      <c r="M97" s="4">
+      <c r="M97" s="5">
         <v>2937</v>
       </c>
-      <c r="N97" s="4">
+      <c r="N97" s="5">
         <v>503</v>
       </c>
-      <c r="O97" s="4">
+      <c r="O97" s="5">
         <v>645</v>
       </c>
-      <c r="P97" s="4">
+      <c r="P97" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5">
         <v>108056</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="5">
         <v>20657</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="5">
         <v>11089</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="5">
         <v>5949</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="5">
         <v>553</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="5">
         <v>76579</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="5">
         <v>17628</v>
       </c>
-      <c r="I98" s="4">
+      <c r="I98" s="5">
         <v>8809</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="5">
         <v>5137</v>
       </c>
-      <c r="K98" s="4">
+      <c r="K98" s="5">
         <v>499</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="5">
         <v>31477</v>
       </c>
-      <c r="M98" s="4">
+      <c r="M98" s="5">
         <v>3029</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N98" s="5">
         <v>2280</v>
       </c>
-      <c r="O98" s="4">
+      <c r="O98" s="5">
         <v>812</v>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5">
         <v>127508</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="5">
         <v>125250</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="5">
         <v>19998</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="5">
         <v>13167</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="5">
         <v>1002</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <v>108864</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="5">
         <v>118526</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I99" s="5">
         <v>18545</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="5">
         <v>12181</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K99" s="5">
         <v>928</v>
       </c>
-      <c r="L99" s="4">
+      <c r="L99" s="5">
         <v>18644</v>
       </c>
-      <c r="M99" s="4">
+      <c r="M99" s="5">
         <v>6724</v>
       </c>
-      <c r="N99" s="4">
+      <c r="N99" s="5">
         <v>1453</v>
       </c>
-      <c r="O99" s="4">
+      <c r="O99" s="5">
         <v>987</v>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="5">
         <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5">
         <v>101679</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="5">
         <v>78146</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="5">
         <v>16625</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="5">
         <v>6687</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="5">
         <v>2230</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="5">
         <v>79376</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="5">
         <v>73527</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I100" s="5">
         <v>14929</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100" s="5">
         <v>5745</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K100" s="5">
         <v>2119</v>
       </c>
-      <c r="L100" s="4">
+      <c r="L100" s="5">
         <v>22304</v>
       </c>
-      <c r="M100" s="4">
+      <c r="M100" s="5">
         <v>4619</v>
       </c>
-      <c r="N100" s="4">
+      <c r="N100" s="5">
         <v>1696</v>
       </c>
-      <c r="O100" s="4">
+      <c r="O100" s="5">
         <v>942</v>
       </c>
-      <c r="P100" s="4">
+      <c r="P100" s="5">
         <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="4">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5">
         <v>82142</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="5">
         <v>20382</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="5">
         <v>8108</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="5">
         <v>4440</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="5">
         <v>1692</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <v>60128</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="5">
         <v>15167</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="5">
         <v>6879</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J101" s="5">
         <v>3956</v>
       </c>
-      <c r="K101" s="4">
+      <c r="K101" s="5">
         <v>1667</v>
       </c>
-      <c r="L101" s="4">
+      <c r="L101" s="5">
         <v>22013</v>
       </c>
-      <c r="M101" s="4">
+      <c r="M101" s="5">
         <v>5215</v>
       </c>
-      <c r="N101" s="4">
+      <c r="N101" s="5">
         <v>1229</v>
       </c>
-      <c r="O101" s="4">
+      <c r="O101" s="5">
         <v>484</v>
       </c>
-      <c r="P101" s="4">
+      <c r="P101" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="4">
+        <v>100</v>
+      </c>
+      <c r="B102" s="5">
         <v>92448</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="5">
         <v>13373</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="5">
         <v>8491</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="5">
         <v>6540</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="5">
         <v>1103</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="5">
         <v>68642</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="5">
         <v>10634</v>
       </c>
-      <c r="I102" s="4">
+      <c r="I102" s="5">
         <v>7202</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J102" s="5">
         <v>5830</v>
       </c>
-      <c r="K102" s="4">
+      <c r="K102" s="5">
         <v>1038</v>
       </c>
-      <c r="L102" s="4">
+      <c r="L102" s="5">
         <v>23805</v>
       </c>
-      <c r="M102" s="4">
+      <c r="M102" s="5">
         <v>2739</v>
       </c>
-      <c r="N102" s="4">
+      <c r="N102" s="5">
         <v>1289</v>
       </c>
-      <c r="O102" s="4">
+      <c r="O102" s="5">
         <v>710</v>
       </c>
-      <c r="P102" s="4">
+      <c r="P102" s="5">
         <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="4">
+        <v>101</v>
+      </c>
+      <c r="B103" s="5">
         <v>73739</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="5">
         <v>14120</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="5">
         <v>6680</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="5">
         <v>5517</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="5">
         <v>1009</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="5">
         <v>58756</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="5">
         <v>11835</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I103" s="5">
         <v>5768</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="5">
         <v>5308</v>
       </c>
-      <c r="K103" s="4">
+      <c r="K103" s="5">
         <v>950</v>
       </c>
-      <c r="L103" s="4">
+      <c r="L103" s="5">
         <v>14982</v>
       </c>
-      <c r="M103" s="4">
+      <c r="M103" s="5">
         <v>2285</v>
       </c>
-      <c r="N103" s="4">
+      <c r="N103" s="5">
         <v>912</v>
       </c>
-      <c r="O103" s="4">
+      <c r="O103" s="5">
         <v>209</v>
       </c>
-      <c r="P103" s="4">
+      <c r="P103" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="4">
+        <v>102</v>
+      </c>
+      <c r="B104" s="5">
         <v>82913</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="5">
         <v>19385</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="5">
         <v>11400</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="5">
         <v>8355</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="5">
         <v>1142</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="5">
         <v>75680</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="5">
         <v>17342</v>
       </c>
-      <c r="I104" s="4">
+      <c r="I104" s="5">
         <v>10838</v>
       </c>
-      <c r="J104" s="4">
+      <c r="J104" s="5">
         <v>8256</v>
       </c>
-      <c r="K104" s="4">
+      <c r="K104" s="5">
         <v>1060</v>
       </c>
-      <c r="L104" s="4">
+      <c r="L104" s="5">
         <v>7232</v>
       </c>
-      <c r="M104" s="4">
+      <c r="M104" s="5">
         <v>2043</v>
       </c>
-      <c r="N104" s="4">
+      <c r="N104" s="5">
         <v>561</v>
       </c>
-      <c r="O104" s="4">
+      <c r="O104" s="5">
         <v>99</v>
       </c>
-      <c r="P104" s="4">
+      <c r="P104" s="5">
         <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="4">
+        <v>103</v>
+      </c>
+      <c r="B105" s="5">
         <v>59289</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="5">
         <v>3586</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="5">
         <v>5905</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="5">
         <v>3775</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="5">
         <v>850</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="5">
         <v>53939</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="5">
         <v>3036</v>
       </c>
-      <c r="I105" s="4">
+      <c r="I105" s="5">
         <v>5812</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105" s="5">
         <v>3719</v>
       </c>
-      <c r="K105" s="4">
+      <c r="K105" s="5">
         <v>848</v>
       </c>
-      <c r="L105" s="4">
+      <c r="L105" s="5">
         <v>5350</v>
       </c>
-      <c r="M105" s="4">
+      <c r="M105" s="5">
         <v>550</v>
       </c>
-      <c r="N105" s="4">
+      <c r="N105" s="5">
         <v>92</v>
       </c>
-      <c r="O105" s="4">
+      <c r="O105" s="5">
         <v>56</v>
       </c>
-      <c r="P105" s="4">
+      <c r="P105" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="4">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5">
         <v>50491</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="5">
         <v>2751</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="5">
         <v>4156</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="5">
         <v>3271</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="5">
         <v>511</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="5">
         <v>44338</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" s="4">
+      <c r="H106" s="7"/>
+      <c r="I106" s="5">
         <v>4051</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106" s="5">
         <v>3135</v>
       </c>
-      <c r="K106" s="4">
+      <c r="K106" s="5">
         <v>508</v>
       </c>
-      <c r="L106" s="4">
+      <c r="L106" s="5">
         <v>6153</v>
       </c>
-      <c r="M106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N106" s="4">
+      <c r="M106" s="7"/>
+      <c r="N106" s="5">
         <v>105</v>
       </c>
-      <c r="O106" s="4">
+      <c r="O106" s="5">
         <v>136</v>
       </c>
-      <c r="P106" s="4">
+      <c r="P106" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="4">
+        <v>105</v>
+      </c>
+      <c r="B107" s="5">
         <v>61911</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="5">
         <v>7380</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="5">
         <v>10668</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="5">
         <v>7264</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="5">
         <v>484</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="5">
         <v>57134</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="5">
         <v>7380</v>
       </c>
-      <c r="I107" s="4">
+      <c r="I107" s="5">
         <v>10382</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="5">
         <v>7156</v>
       </c>
-      <c r="K107" s="4">
+      <c r="K107" s="5">
         <v>484</v>
       </c>
-      <c r="L107" s="4">
+      <c r="L107" s="5">
         <v>4777</v>
       </c>
-      <c r="M107" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N107" s="4">
+      <c r="M107" s="7"/>
+      <c r="N107" s="5">
         <v>286</v>
       </c>
-      <c r="O107" s="4">
+      <c r="O107" s="5">
         <v>108</v>
       </c>
-      <c r="P107" s="4">
+      <c r="P107" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="4">
+        <v>106</v>
+      </c>
+      <c r="B108" s="5">
         <v>77097</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="5">
         <v>10168</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="5">
         <v>7633</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="5">
         <v>5318</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="5">
         <v>720</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="5">
         <v>68962</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="5">
         <v>9315</v>
       </c>
-      <c r="I108" s="4">
+      <c r="I108" s="5">
         <v>7510</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108" s="5">
         <v>5164</v>
       </c>
-      <c r="K108" s="4">
+      <c r="K108" s="5">
         <v>716</v>
       </c>
-      <c r="L108" s="4">
+      <c r="L108" s="5">
         <v>8135</v>
       </c>
-      <c r="M108" s="4">
+      <c r="M108" s="5">
         <v>853</v>
       </c>
-      <c r="N108" s="4">
+      <c r="N108" s="5">
         <v>123</v>
       </c>
-      <c r="O108" s="4">
+      <c r="O108" s="5">
         <v>154</v>
       </c>
-      <c r="P108" s="4">
+      <c r="P108" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="4">
+        <v>107</v>
+      </c>
+      <c r="B109" s="5">
         <v>100690</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="5">
         <v>14787</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="5">
         <v>10904</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="5">
         <v>8638</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="5">
         <v>987</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="5">
         <v>81495</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="5">
         <v>12297</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I109" s="5">
         <v>9987</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109" s="5">
         <v>7783</v>
       </c>
-      <c r="K109" s="4">
+      <c r="K109" s="5">
         <v>987</v>
       </c>
-      <c r="L109" s="4">
+      <c r="L109" s="5">
         <v>19195</v>
       </c>
-      <c r="M109" s="4">
+      <c r="M109" s="5">
         <v>2490</v>
       </c>
-      <c r="N109" s="4">
+      <c r="N109" s="5">
         <v>917</v>
       </c>
-      <c r="O109" s="4">
+      <c r="O109" s="5">
         <v>854</v>
       </c>
-      <c r="P109" s="4">
+      <c r="P109" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="4">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5">
         <v>112172</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="5">
         <v>20741</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="5">
         <v>9756</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="5">
         <v>6058</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="5">
         <v>576</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="5">
         <v>82326</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="5">
         <v>18173</v>
       </c>
-      <c r="I110" s="4">
+      <c r="I110" s="5">
         <v>8263</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110" s="5">
         <v>5079</v>
       </c>
-      <c r="K110" s="4">
+      <c r="K110" s="5">
         <v>527</v>
       </c>
-      <c r="L110" s="4">
+      <c r="L110" s="5">
         <v>29846</v>
       </c>
-      <c r="M110" s="4">
+      <c r="M110" s="5">
         <v>2568</v>
       </c>
-      <c r="N110" s="4">
+      <c r="N110" s="5">
         <v>1493</v>
       </c>
-      <c r="O110" s="4">
+      <c r="O110" s="5">
         <v>979</v>
       </c>
-      <c r="P110" s="4">
+      <c r="P110" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="4">
+        <v>109</v>
+      </c>
+      <c r="B111" s="5">
         <v>121503</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="5">
         <v>118300</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="5">
         <v>18381</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="5">
         <v>12869</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="5">
         <v>1592</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="5">
         <v>106238</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="5">
         <v>112685</v>
       </c>
-      <c r="I111" s="4">
+      <c r="I111" s="5">
         <v>17023</v>
       </c>
-      <c r="J111" s="4">
+      <c r="J111" s="5">
         <v>11710</v>
       </c>
-      <c r="K111" s="4">
+      <c r="K111" s="5">
         <v>1372</v>
       </c>
-      <c r="L111" s="4">
+      <c r="L111" s="5">
         <v>15265</v>
       </c>
-      <c r="M111" s="4">
+      <c r="M111" s="5">
         <v>5615</v>
       </c>
-      <c r="N111" s="4">
+      <c r="N111" s="5">
         <v>1358</v>
       </c>
-      <c r="O111" s="4">
+      <c r="O111" s="5">
         <v>1159</v>
       </c>
-      <c r="P111" s="4">
+      <c r="P111" s="5">
         <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="4">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5">
         <v>88982</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="5">
         <v>71837</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="5">
         <v>10815</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="5">
         <v>6115</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="5">
         <v>2482</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="5">
         <v>71731</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="5">
         <v>67808</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112" s="5">
         <v>9341</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="5">
         <v>5106</v>
       </c>
-      <c r="K112" s="4">
+      <c r="K112" s="5">
         <v>2482</v>
       </c>
-      <c r="L112" s="4">
+      <c r="L112" s="5">
         <v>17251</v>
       </c>
-      <c r="M112" s="4">
+      <c r="M112" s="5">
         <v>4029</v>
       </c>
-      <c r="N112" s="4">
+      <c r="N112" s="5">
         <v>1474</v>
       </c>
-      <c r="O112" s="4">
+      <c r="O112" s="5">
         <v>1009</v>
       </c>
-      <c r="P112" s="4">
+      <c r="P112" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="4">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5">
         <v>87513</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="5">
         <v>20582</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="5">
         <v>5851</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="5">
         <v>4928</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="5">
         <v>376</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="5">
         <v>67039</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="5">
         <v>16381</v>
       </c>
-      <c r="I113" s="4">
+      <c r="I113" s="5">
         <v>4956</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="5">
         <v>4282</v>
       </c>
-      <c r="K113" s="4">
+      <c r="K113" s="5">
         <v>376</v>
       </c>
-      <c r="L113" s="4">
+      <c r="L113" s="5">
         <v>20474</v>
       </c>
-      <c r="M113" s="4">
+      <c r="M113" s="5">
         <v>4201</v>
       </c>
-      <c r="N113" s="4">
+      <c r="N113" s="5">
         <v>894</v>
       </c>
-      <c r="O113" s="4">
+      <c r="O113" s="5">
         <v>645</v>
       </c>
-      <c r="P113" s="4">
+      <c r="P113" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="4">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5">
         <v>94899</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="5">
         <v>15782</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="5">
         <v>7303</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="5">
         <v>5177</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="5">
         <v>1319</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="5">
         <v>73106</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H114" s="5">
         <v>12112</v>
       </c>
-      <c r="I114" s="4">
+      <c r="I114" s="5">
         <v>6424</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="5">
         <v>4670</v>
       </c>
-      <c r="K114" s="4">
+      <c r="K114" s="5">
         <v>1317</v>
       </c>
-      <c r="L114" s="4">
+      <c r="L114" s="5">
         <v>21793</v>
       </c>
-      <c r="M114" s="4">
+      <c r="M114" s="5">
         <v>3670</v>
       </c>
-      <c r="N114" s="4">
+      <c r="N114" s="5">
         <v>879</v>
       </c>
-      <c r="O114" s="4">
+      <c r="O114" s="5">
         <v>506</v>
       </c>
-      <c r="P114" s="4">
+      <c r="P114" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="4">
+        <v>113</v>
+      </c>
+      <c r="B115" s="5">
         <v>85775</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="5">
         <v>21495</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="5">
         <v>9589</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="5">
         <v>7408</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="5">
         <v>1738</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="5">
         <v>69479</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="5">
         <v>20090</v>
       </c>
-      <c r="I115" s="4">
+      <c r="I115" s="5">
         <v>8930</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="5">
         <v>7235</v>
       </c>
-      <c r="K115" s="4">
+      <c r="K115" s="5">
         <v>1738</v>
       </c>
-      <c r="L115" s="4">
+      <c r="L115" s="5">
         <v>16297</v>
       </c>
-      <c r="M115" s="4">
+      <c r="M115" s="5">
         <v>1405</v>
       </c>
-      <c r="N115" s="4">
+      <c r="N115" s="5">
         <v>659</v>
       </c>
-      <c r="O115" s="4">
+      <c r="O115" s="5">
         <v>172</v>
       </c>
-      <c r="P115" s="4">
+      <c r="P115" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" s="4">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5">
         <v>70652</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="5">
         <v>7993</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="5">
         <v>7543</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="5">
         <v>3985</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="5">
         <v>445</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="5">
         <v>63158</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="5">
         <v>7183</v>
       </c>
-      <c r="I116" s="4">
+      <c r="I116" s="5">
         <v>6769</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="5">
         <v>3914</v>
       </c>
-      <c r="K116" s="4">
+      <c r="K116" s="5">
         <v>445</v>
       </c>
-      <c r="L116" s="4">
+      <c r="L116" s="5">
         <v>7494</v>
       </c>
-      <c r="M116" s="4">
+      <c r="M116" s="5">
         <v>810</v>
       </c>
-      <c r="N116" s="4">
+      <c r="N116" s="5">
         <v>775</v>
       </c>
-      <c r="O116" s="4">
+      <c r="O116" s="5">
         <v>71</v>
       </c>
-      <c r="P116" s="4">
+      <c r="P116" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="4">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5">
         <v>50112</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="5">
         <v>3054</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="5">
         <v>6080</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="5">
         <v>2205</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="5">
         <v>866</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="5">
         <v>45528</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="5">
         <v>2554</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I117" s="5">
         <v>5766</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="5">
         <v>2191</v>
       </c>
-      <c r="K117" s="4">
+      <c r="K117" s="5">
         <v>701</v>
       </c>
-      <c r="L117" s="4">
+      <c r="L117" s="5">
         <v>4584</v>
       </c>
-      <c r="M117" s="4">
+      <c r="M117" s="5">
         <v>500</v>
       </c>
-      <c r="N117" s="4">
+      <c r="N117" s="5">
         <v>314</v>
       </c>
-      <c r="O117" s="4">
+      <c r="O117" s="5">
         <v>13</v>
       </c>
-      <c r="P117" s="4">
+      <c r="P117" s="5">
         <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="4">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5">
         <v>45159</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="5">
         <v>2468</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="5">
         <v>5303</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="5">
         <v>2761</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="5">
         <v>171</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="5">
         <v>40192</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="5">
         <v>2268</v>
       </c>
-      <c r="I118" s="4">
+      <c r="I118" s="5">
         <v>5256</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J118" s="5">
         <v>2750</v>
       </c>
-      <c r="K118" s="4">
+      <c r="K118" s="5">
         <v>171</v>
       </c>
-      <c r="L118" s="4">
+      <c r="L118" s="5">
         <v>4967</v>
       </c>
-      <c r="M118" s="4">
+      <c r="M118" s="5">
         <v>200</v>
       </c>
-      <c r="N118" s="4">
+      <c r="N118" s="5">
         <v>47</v>
       </c>
-      <c r="O118" s="4">
+      <c r="O118" s="5">
         <v>11</v>
       </c>
-      <c r="P118" s="4">
+      <c r="P118" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>